--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.436700000000003</v>
+        <v>6.700700000000007</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.959800000000003</v>
+        <v>9.003999999999998</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.7179</v>
+        <v>-21.68189999999999</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.60310000000001</v>
+        <v>-21.55560000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.97289999999999</v>
+        <v>6.782999999999995</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.7892</v>
+        <v>-21.90789999999999</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.920900000000002</v>
+        <v>4.410000000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.7696</v>
+        <v>-21.70319999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.73800000000001</v>
+        <v>-21.83449999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.56489999999998</v>
+        <v>-21.60369999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>4.906700000000003</v>
+        <v>4.671200000000003</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.2711</v>
+        <v>-21.363</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.909300000000002</v>
+        <v>9.113000000000007</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.9584</v>
+        <v>-19.73389999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.6617</v>
+        <v>8.925200000000004</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.1949</v>
+        <v>-19.2326</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.513500000000002</v>
+        <v>9.521600000000007</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.4252</v>
+        <v>8.674200000000004</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>7.230999999999994</v>
+        <v>6.461499999999996</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.51009999999999</v>
+        <v>-21.6771</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.220500000000002</v>
+        <v>5.186900000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.57349999999999</v>
+        <v>-21.66229999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.33670000000001</v>
+        <v>-22.3875</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.0701</v>
+        <v>-21.9934</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.790199999999995</v>
+        <v>4.628999999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.45839999999997</v>
+        <v>-21.52299999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.71609999999997</v>
+        <v>-21.72669999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.08040000000001</v>
+        <v>-22.18100000000003</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.82279999999999</v>
+        <v>-19.87139999999998</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.846299999999998</v>
+        <v>6.2989</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.57089999999999</v>
+        <v>-21.61859999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.541799999999999</v>
+        <v>5.671100000000004</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.92149999999999</v>
+        <v>-22.0123</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.41620000000001</v>
+        <v>-21.4221</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.50989999999999</v>
+        <v>-21.30209999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.0584</v>
+        <v>-20.21759999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.376899999999998</v>
+        <v>5.390799999999996</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.231199999999998</v>
+        <v>8.194200000000002</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
